--- a/easyicc-web/easyicc-card-readdata/src/main/resources/doc/VISITOR_DB.xlsx
+++ b/easyicc-web/easyicc-card-readdata/src/main/resources/doc/VISITOR_DB.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="JS_VISITOR_INFO" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="225">
   <si>
     <t>JS_VISITOR_COL_SELF_ITEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,298 @@
     <t>SITE_ID</t>
   </si>
   <si>
+    <t>MSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_COLUMN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEARCH_HOST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPREAD_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传播标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始访问URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_VALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFY_IDENTITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLOCATION_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_EXPIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局静态ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDIT_USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_AGENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLICK_TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单机文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD_USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTAG_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD关键字ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD_CREATIVE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISITOR_STATIC_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>VISITOR_STATIC_ID</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>BYTE</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>RESEVE_KEY</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>REPNAME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>EXT_COLUMN1</t>
+  </si>
+  <si>
+    <t>SEARCH_ENGINE</t>
+  </si>
+  <si>
+    <t>KEYWORD</t>
+  </si>
+  <si>
+    <t>SEARCH_HOST</t>
+  </si>
+  <si>
+    <t>SPREAD_FLAG</t>
+  </si>
+  <si>
+    <t>PROMOTION_ID</t>
+  </si>
+  <si>
+    <t>BACK_DESP</t>
+  </si>
+  <si>
+    <t>IS_VALID</t>
+  </si>
+  <si>
+    <t>ALLOCATION_STATUS</t>
+  </si>
+  <si>
+    <t>MODIFY_IDENTITY</t>
+  </si>
+  <si>
+    <t>ALLOCATION_TIME</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>IS_EXPIRED</t>
+  </si>
+  <si>
+    <t>GLOBAL_STATIC_ID</t>
+  </si>
+  <si>
+    <t>EDIT_USER_ID</t>
+  </si>
+  <si>
+    <t>BACK_USER_ID</t>
+  </si>
+  <si>
+    <t>REFER</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>DEVICE_TYPE</t>
+  </si>
+  <si>
+    <t>USER_AGENT</t>
+  </si>
+  <si>
+    <t>CLICK_TEXT</t>
+  </si>
+  <si>
+    <t>BD_USER_ID</t>
+  </si>
+  <si>
+    <t>BD_CAMPAIGIN_ID</t>
+  </si>
+  <si>
+    <t>BD_ADGROUND_ID</t>
+  </si>
+  <si>
+    <t>BD_KEYWORD_ID</t>
+  </si>
+  <si>
+    <t>BD_CREATIVE_ID</t>
+  </si>
+  <si>
+    <t>NTAG_ID</t>
+  </si>
+  <si>
+    <t>COMPANY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>公司ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,10 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,34 +630,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REPNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MSN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>COMPANY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,15 +686,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CREATE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXT_COLUMN1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展字段</t>
+    <t>NOTE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRM_STATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,6 +706,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CRM_REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>crm备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,51 +718,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KEYWORD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEARCH_HOST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPREAD_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传播标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始访问URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_VALID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否退回</t>
+    <t>CHAT_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROMOTION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK_DESP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISH_DESP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_BACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -458,35 +762,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MODIFY_IDENTITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALLOCATION_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分配时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_EXPIRED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否过期</t>
+    <t>CREATE_USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -494,15 +774,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全局静态ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDIT_USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑用户ID</t>
+    <t>EDIT_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,15 +786,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退回用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退回时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动</t>
+    <t>AUTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -534,27 +806,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参考url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COUNTRY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站ID</t>
+    <t>PROVINCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -562,183 +826,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BD_CAMPAIGIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD_ADGROUND_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD_KEYWORD_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>设备类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_AGENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLICK_TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单机文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD_USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTAG_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BACK_DESP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD_CAMPAIGIN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD_ADGROUND_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD_KEYWORD_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD关键字ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD_CREATIVE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROMOTION_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VISITOR_STATIC_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>VISITOR_STATIC_ID</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>BYTE</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>RESEVE_KEY</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>REPNAME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>EXT_COLUMN1</t>
-  </si>
-  <si>
-    <t>SEARCH_ENGINE</t>
-  </si>
-  <si>
-    <t>KEYWORD</t>
-  </si>
-  <si>
-    <t>SEARCH_HOST</t>
-  </si>
-  <si>
-    <t>SPREAD_FLAG</t>
-  </si>
-  <si>
-    <t>PROMOTION_ID</t>
-  </si>
-  <si>
-    <t>BACK_DESP</t>
-  </si>
-  <si>
-    <t>IS_VALID</t>
-  </si>
-  <si>
-    <t>ALLOCATION_STATUS</t>
-  </si>
-  <si>
-    <t>MODIFY_IDENTITY</t>
-  </si>
-  <si>
-    <t>ALLOCATION_TIME</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>IS_EXPIRED</t>
-  </si>
-  <si>
-    <t>GLOBAL_STATIC_ID</t>
-  </si>
-  <si>
-    <t>EDIT_USER_ID</t>
-  </si>
-  <si>
-    <t>BACK_USER_ID</t>
-  </si>
-  <si>
-    <t>REFER</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>DEVICE_TYPE</t>
-  </si>
-  <si>
-    <t>USER_AGENT</t>
-  </si>
-  <si>
-    <t>CLICK_TEXT</t>
-  </si>
-  <si>
-    <t>BD_USER_ID</t>
-  </si>
-  <si>
-    <t>BD_CAMPAIGIN_ID</t>
-  </si>
-  <si>
-    <t>BD_ADGROUND_ID</t>
-  </si>
-  <si>
-    <t>BD_KEYWORD_ID</t>
-  </si>
-  <si>
-    <t>BD_CREATIVE_ID</t>
-  </si>
-  <si>
-    <t>NTAG_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +856,34 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -774,8 +910,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1331,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1348,23 +1488,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1372,63 +1512,63 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,28 +1576,28 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1465,20 +1605,20 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1488,10 +1628,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1499,7 +1639,7 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1507,7 +1647,7 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1515,7 +1655,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,7 +1663,7 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1671,7 @@
         <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1539,7 +1679,7 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +1687,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1555,7 +1695,7 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1563,190 +1703,190 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>160</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" t="s">
-        <v>117</v>
+      <c r="A44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" t="s">
-        <v>119</v>
+      <c r="A45" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" t="s">
-        <v>127</v>
+      <c r="A50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" t="s">
-        <v>129</v>
+      <c r="A51" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" t="s">
-        <v>131</v>
+      <c r="A52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" t="s">
-        <v>132</v>
+      <c r="A53" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" t="s">
-        <v>134</v>
+      <c r="A54" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1754,128 +1894,129 @@
         <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" t="s">
-        <v>136</v>
+      <c r="A56" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B57" t="s">
-        <v>137</v>
+      <c r="B57" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1883,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1898,7 +2039,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C1">
         <v>10</v>
@@ -1924,10 +2065,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>384</v>
@@ -1951,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1959,7 +2100,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1988,7 +2129,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -2012,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2020,7 +2161,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <v>300</v>
@@ -2044,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2052,7 +2193,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>300</v>
@@ -2076,15 +2217,15 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C7">
         <v>3072</v>
@@ -2108,15 +2249,15 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -2140,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2148,7 +2289,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>60</v>
@@ -2172,15 +2313,15 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C10">
         <v>300</v>
@@ -2204,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2212,7 +2353,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C11">
         <v>300</v>
@@ -2236,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2244,7 +2385,7 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>300</v>
@@ -2268,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2276,7 +2417,7 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C13">
         <v>300</v>
@@ -2300,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2308,7 +2449,7 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>1500</v>
@@ -2332,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2340,7 +2481,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C15">
         <v>300</v>
@@ -2364,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2372,7 +2513,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C16">
         <v>1200</v>
@@ -2396,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -2404,7 +2545,7 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C17">
         <v>64</v>
@@ -2428,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -2436,7 +2577,7 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2465,7 +2606,7 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C19">
         <v>512</v>
@@ -2489,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -2497,7 +2638,7 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C20">
         <v>512</v>
@@ -2521,15 +2662,15 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C21">
         <v>4000</v>
@@ -2553,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -2561,7 +2702,7 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C22">
         <v>4000</v>
@@ -2585,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -2593,7 +2734,7 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C23">
         <v>4000</v>
@@ -2617,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -2625,7 +2766,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C24">
         <v>4000</v>
@@ -2649,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2657,7 +2798,7 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C25">
         <v>4000</v>
@@ -2681,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -2689,7 +2830,7 @@
         <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C26">
         <v>4000</v>
@@ -2713,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2721,7 +2862,7 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C27">
         <v>4000</v>
@@ -2745,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -2753,7 +2894,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C28">
         <v>4000</v>
@@ -2777,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2785,7 +2926,7 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C29">
         <v>4000</v>
@@ -2809,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2817,7 +2958,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C30">
         <v>4000</v>
@@ -2841,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2849,7 +2990,7 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2878,7 +3019,7 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C32">
         <v>1200</v>
@@ -2902,15 +3043,15 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C33">
         <v>900</v>
@@ -2934,15 +3075,15 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C34">
         <v>900</v>
@@ -2966,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2974,7 +3115,7 @@
         <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C35">
         <v>4000</v>
@@ -2998,15 +3139,15 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C36">
         <v>600</v>
@@ -3030,15 +3171,15 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C37">
         <v>600</v>
@@ -3062,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3070,7 +3211,7 @@
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C38">
         <v>4000</v>
@@ -3094,15 +3235,15 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3131,7 +3272,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C40">
         <v>300</v>
@@ -3155,15 +3296,15 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C41">
         <v>4000</v>
@@ -3187,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -3195,7 +3336,7 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C42">
         <v>4000</v>
@@ -3219,15 +3360,15 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3256,7 +3397,7 @@
         <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3282,10 +3423,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3311,10 +3452,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C46">
         <v>300</v>
@@ -3338,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3346,7 +3487,7 @@
         <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C47">
         <v>300</v>
@@ -3370,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -3378,7 +3519,7 @@
         <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3404,10 +3545,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -3433,10 +3574,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3462,10 +3603,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C51">
         <v>384</v>
@@ -3489,15 +3630,15 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C52">
         <v>300</v>
@@ -3521,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -3529,7 +3670,7 @@
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -3555,10 +3696,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C54">
         <v>300</v>
@@ -3582,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -3590,7 +3731,7 @@
         <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -3619,7 +3760,7 @@
         <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3645,10 +3786,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3674,10 +3815,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C58">
         <v>4000</v>
@@ -3701,15 +3842,15 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C59">
         <v>150</v>
@@ -3733,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3741,7 +3882,7 @@
         <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C60">
         <v>150</v>
@@ -3765,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -3773,7 +3914,7 @@
         <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C61">
         <v>150</v>
@@ -3797,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3805,7 +3946,7 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3831,10 +3972,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C63">
         <v>60</v>
@@ -3858,15 +3999,15 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C64">
         <v>1200</v>
@@ -3890,15 +4031,15 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C65">
         <v>1200</v>
@@ -3922,15 +4063,15 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C66">
         <v>150</v>
@@ -3954,15 +4095,15 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C67">
         <v>150</v>
@@ -3986,15 +4127,15 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C68">
         <v>150</v>
@@ -4018,15 +4159,15 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C69">
         <v>150</v>
@@ -4050,15 +4191,15 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C70">
         <v>150</v>
@@ -4082,15 +4223,15 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C71">
         <v>0</v>
